--- a/doc/log/小组日志整合表.xlsx
+++ b/doc/log/小组日志整合表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张志毅\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\NLP\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E7B42-3040-4E5C-BE21-5D78E0E2D402}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C3AAC4-20F1-4291-B108-E7394B19EF5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12645" yWindow="2955" windowWidth="16605" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11865" yWindow="2985" windowWidth="16605" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>日期</t>
   </si>
@@ -76,6 +76,61 @@
   </si>
   <si>
     <t>了解handlp和jieba</t>
+  </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>整体了解N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LP的各个模块的基础知识和概念</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习语义角色标注的基础知识和概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解大概</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体了解NLP的各个模块的基础知识和概念</t>
   </si>
 </sst>
 </file>
@@ -95,12 +150,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -113,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,13 +219,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +256,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,7 +602,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,7 +629,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -572,7 +643,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -584,22 +655,42 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="5">
+        <v>43662</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
@@ -776,6 +867,10 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/小组日志整合表.xlsx
+++ b/doc/log/小组日志整合表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\NLP\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C3AAC4-20F1-4291-B108-E7394B19EF5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="2985" windowWidth="16605" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>日期</t>
   </si>
@@ -37,52 +31,35 @@
   </si>
   <si>
     <t>下午14:10-17:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巩固复习python基础语法</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巩固复习python基础语法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开始浅入了解依存分析部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基本了解</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午14:10-17:30</t>
-  </si>
-  <si>
-    <t>完成python环境配置</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-  </si>
-  <si>
-    <t>巩固python基础语法</t>
-  </si>
-  <si>
-    <t>了解handlp和jieba</t>
   </si>
   <si>
     <t>上午8:00-11:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>整体了解N</t>
     </r>
     <r>
@@ -91,20 +68,25 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>LP的各个模块的基础知识和概念</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>下午2</t>
     </r>
     <r>
@@ -113,31 +95,60 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学习语义角色标注的基础知识和概念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>了解大概</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>整体了解NLP的各个模块的基础知识和概念</t>
+  </si>
+  <si>
+    <t>完成python环境配置</t>
+  </si>
+  <si>
+    <t>巩固python基础语法</t>
+  </si>
+  <si>
+    <t>了解handlp和jieba</t>
+  </si>
+  <si>
+    <t>上午8：00-11:30</t>
+  </si>
+  <si>
+    <t>安装并初步学习jieba</t>
+  </si>
+  <si>
+    <t>查看NLP文档</t>
+  </si>
+  <si>
+    <t>还行</t>
+  </si>
+  <si>
+    <t>初步学习python基础</t>
+  </si>
+  <si>
+    <t>未学完</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,27 +161,357 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -230,13 +571,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,33 +829,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -321,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,26 +996,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,23 +1031,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,28 +1201,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,24 +1236,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -654,213 +1262,213 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="42" customHeight="1" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -868,32 +1476,33 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -907,61 +1516,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="11">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -975,230 +1587,251 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="6">
+        <v>43662</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="42" customHeight="1" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="42" customHeight="1" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/小组日志整合表.xlsx
+++ b/doc/log/小组日志整合表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="13455" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -58,7 +58,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>整体了解N</t>
     </r>
@@ -69,7 +68,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>LP的各个模块的基础知识和概念</t>
     </r>
@@ -85,7 +83,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>下午2</t>
     </r>
@@ -96,7 +93,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:10-17:30</t>
     </r>
@@ -115,6 +111,18 @@
   </si>
   <si>
     <t>巩固python基础语法</t>
+  </si>
+  <si>
+    <t>理解依存语法分析</t>
+  </si>
+  <si>
+    <t>下午2:10-17:30</t>
+  </si>
+  <si>
+    <t>了解自然语言处理简介</t>
+  </si>
+  <si>
+    <t>复习Python中基础知识</t>
   </si>
   <si>
     <t>了解handlp和jieba</t>
@@ -148,7 +156,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,9 +173,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -175,6 +197,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,29 +225,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,82 +316,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,181 +326,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +574,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -603,6 +592,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,8 +649,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,15 +669,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,137 +689,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,25 +838,10 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -1213,11 +1198,11 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1277,7 +1262,7 @@
       </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1479,27 +1464,27 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="27.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="44.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="22.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -1517,7 +1502,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="11">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1543,33 +1528,65 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="7">
+        <v>43662</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3833333333333" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1607,48 +1624,48 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
@@ -1830,7 +1847,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/doc/log/小组日志整合表.xlsx
+++ b/doc/log/小组日志整合表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13455" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>日期</t>
   </si>
@@ -145,6 +145,18 @@
   <si>
     <t>未学完</t>
   </si>
+  <si>
+    <t>学习python基础  2/3</t>
+  </si>
+  <si>
+    <t>查看文档</t>
+  </si>
+  <si>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>学习python基础</t>
+  </si>
 </sst>
 </file>
 
@@ -152,11 +164,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +186,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,6 +254,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,22 +274,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,8 +306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,30 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -271,50 +330,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -326,6 +345,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,13 +387,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,133 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,11 +591,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,41 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -645,30 +688,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,137 +708,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +858,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1190,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -1198,11 +1226,11 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1471,20 +1499,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="27.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="44.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="22.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -1502,7 +1530,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>43661</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1528,7 +1556,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1573,20 +1601,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1669,22 +1697,42 @@
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="7">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
@@ -1843,9 +1891,10 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/log/小组日志整合表.xlsx
+++ b/doc/log/小组日志整合表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7992E5CA-A4B4-4DD7-B4CB-C877D5325A58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView xWindow="435" yWindow="2355" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>日期</t>
   </si>
@@ -157,18 +163,21 @@
   <si>
     <t>学习python基础</t>
   </si>
+  <si>
+    <t>了解Anacnoda工具以及正则表达式和一些包的介绍</t>
+  </si>
+  <si>
+    <t>学习词性标注，命名实体识别，关键词提取等概念</t>
+  </si>
+  <si>
+    <t>安装nltk并调试，了解nltk的具体功能</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,352 +194,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -590,255 +275,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,11 +291,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,74 +306,18 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1214,28 +604,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1249,22 +639,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1275,11 +665,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1289,9 +679,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1301,9 +691,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1313,209 +703,229 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1529,21 +939,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="10">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1555,8 +965,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="10">
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1569,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -1581,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1594,31 +1004,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1632,22 +1041,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1658,11 +1067,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1672,9 +1081,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1684,8 +1093,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1696,8 +1105,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1710,8 +1119,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1722,8 +1131,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1734,157 +1143,157 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1896,8 +1305,8 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/小组日志整合表.xlsx
+++ b/doc/log/小组日志整合表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7992E5CA-A4B4-4DD7-B4CB-C877D5325A58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="2355" windowWidth="20880" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22590" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -113,6 +107,18 @@
     <t>整体了解NLP的各个模块的基础知识和概念</t>
   </si>
   <si>
+    <t>了解Anacnoda工具以及正则表达式和一些包的介绍</t>
+  </si>
+  <si>
+    <t>下午2:10-17:30</t>
+  </si>
+  <si>
+    <t>学习词性标注，命名实体识别，关键词提取等概念</t>
+  </si>
+  <si>
+    <t>安装nltk并调试，了解nltk的具体功能</t>
+  </si>
+  <si>
     <t>完成python环境配置</t>
   </si>
   <si>
@@ -122,15 +128,43 @@
     <t>理解依存语法分析</t>
   </si>
   <si>
-    <t>下午2:10-17:30</t>
-  </si>
-  <si>
     <t>了解自然语言处理简介</t>
   </si>
   <si>
     <t>复习Python中基础知识</t>
   </si>
   <si>
+    <t>复习Python正则表达式</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+  </si>
+  <si>
+    <t>深入学习语义角色标注：</t>
+  </si>
+  <si>
+    <t>了解Anacnoda工具以及一些包的介绍</t>
+  </si>
+  <si>
     <t>了解handlp和jieba</t>
   </si>
   <si>
@@ -162,22 +196,19 @@
   </si>
   <si>
     <t>学习python基础</t>
-  </si>
-  <si>
-    <t>了解Anacnoda工具以及正则表达式和一些包的介绍</t>
-  </si>
-  <si>
-    <t>学习词性标注，命名实体识别，关键词提取等概念</t>
-  </si>
-  <si>
-    <t>安装nltk并调试，了解nltk的具体功能</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,27 +226,359 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -275,9 +638,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -291,33 +896,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -604,19 +1253,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -625,7 +1274,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,22 +1288,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -665,11 +1314,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -679,9 +1328,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -691,9 +1340,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -703,195 +1352,195 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -903,21 +1552,22 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -925,7 +1575,7 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -939,86 +1589,128 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1027,7 +1719,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1041,259 +1733,259 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1305,8 +1997,8 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/小组日志整合表.xlsx
+++ b/doc/log/小组日志整合表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D42DE99-4C51-449D-87C2-5AE8526EF157}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="12630" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>日期</t>
   </si>
@@ -197,18 +203,58 @@
   <si>
     <t>学习python基础</t>
   </si>
+  <si>
+    <t>上午8:00-11:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了解Anaconda以及配置环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下午2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:10-17:30</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用Anaconda创建虚拟环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:10-21:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习falsk框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,152 +272,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -381,204 +288,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -638,251 +361,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -896,11 +377,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,65 +392,18 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1253,19 +690,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -1274,7 +711,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1288,22 +725,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1314,11 +751,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1328,9 +765,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1340,9 +777,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1352,8 +789,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1366,8 +803,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1378,8 +815,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1390,184 +827,204 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -1575,7 +1032,7 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1589,21 +1046,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1615,8 +1072,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1629,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1641,7 +1098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1653,11 +1110,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1667,9 +1124,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1679,9 +1136,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1695,22 +1152,21 @@
   <mergeCells count="1">
     <mergeCell ref="A7:A9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1719,7 +1175,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1733,22 +1189,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>43661</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1759,11 +1215,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>43662</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1773,9 +1229,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1785,8 +1241,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1797,8 +1253,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1811,8 +1267,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1823,8 +1279,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1835,157 +1291,157 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1997,8 +1453,8 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/小组日志整合表.xlsx
+++ b/doc/log/小组日志整合表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D42DE99-4C51-449D-87C2-5AE8526EF157}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22590" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>日期</t>
   </si>
@@ -125,22 +119,7 @@
     <t>安装nltk并调试，了解nltk的具体功能</t>
   </si>
   <si>
-    <t>完成python环境配置</t>
-  </si>
-  <si>
-    <t>巩固python基础语法</t>
-  </si>
-  <si>
-    <t>理解依存语法分析</t>
-  </si>
-  <si>
-    <t>了解自然语言处理简介</t>
-  </si>
-  <si>
-    <t>复习Python中基础知识</t>
-  </si>
-  <si>
-    <t>复习Python正则表达式</t>
+    <t>学习了解Anaconda以及配置环境</t>
   </si>
   <si>
     <r>
@@ -165,12 +144,45 @@
     </r>
   </si>
   <si>
+    <t>用Anaconda创建虚拟环境</t>
+  </si>
+  <si>
+    <t>学习falsk框架</t>
+  </si>
+  <si>
+    <t>未完待续</t>
+  </si>
+  <si>
+    <t>完成python环境配置</t>
+  </si>
+  <si>
+    <t>巩固python基础语法</t>
+  </si>
+  <si>
+    <t>理解依存语法分析</t>
+  </si>
+  <si>
+    <t>了解自然语言处理简介</t>
+  </si>
+  <si>
+    <t>复习Python中基础知识</t>
+  </si>
+  <si>
+    <t>复习Python正则表达式</t>
+  </si>
+  <si>
     <t>深入学习语义角色标注：</t>
   </si>
   <si>
     <t>了解Anacnoda工具以及一些包的介绍</t>
   </si>
   <si>
+    <t>安装并配置Anaconda</t>
+  </si>
+  <si>
+    <t>学习《数学之美》</t>
+  </si>
+  <si>
     <t>了解handlp和jieba</t>
   </si>
   <si>
@@ -202,59 +214,19 @@
   </si>
   <si>
     <t>学习python基础</t>
-  </si>
-  <si>
-    <t>上午8:00-11:30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习了解Anaconda以及配置环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用Anaconda创建虚拟环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:10-21:30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习falsk框架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完待续</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +243,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,30 +394,209 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -361,9 +656,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -377,33 +914,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -690,19 +1271,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -711,7 +1292,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,22 +1306,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" ht="33" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -751,11 +1332,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -765,9 +1346,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -777,9 +1358,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -789,8 +1370,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -803,8 +1384,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -815,8 +1396,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -827,177 +1408,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
         <v>43664</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="42" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="42" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1010,21 +1591,22 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -1032,7 +1614,7 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1046,127 +1628,167 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="7">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7">
         <v>43662</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
@@ -1175,7 +1797,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24.95" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1189,259 +1811,259 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
         <v>43661</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
         <v>43662</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="42" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="42" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="42" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="42" customHeight="1" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="42" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="42" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="42" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="42" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="42" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="42" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="42" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="42" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="42" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="42" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="42" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="42" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="42" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="42" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="42" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="42" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="42" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="42" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="42" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="42" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="42" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1453,8 +2075,8 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/小组日志整合表.xlsx
+++ b/doc/log/小组日志整合表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="张志毅" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>日期</t>
   </si>
@@ -122,28 +122,6 @@
     <t>学习了解Anaconda以及配置环境</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:10-17:30</t>
-    </r>
-  </si>
-  <si>
     <t>用Anaconda创建虚拟环境</t>
   </si>
   <si>
@@ -214,6 +192,15 @@
   </si>
   <si>
     <t>学习python基础</t>
+  </si>
+  <si>
+    <t>安装flask并学习</t>
+  </si>
+  <si>
+    <t>学习待续</t>
+  </si>
+  <si>
+    <t>学习flask</t>
   </si>
 </sst>
 </file>
@@ -221,12 +208,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,7 +231,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,21 +290,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,82 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -379,28 +374,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -411,6 +390,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,13 +522,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,25 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,127 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,26 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,16 +672,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,133 +753,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -1283,11 +1262,11 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1425,10 +1404,10 @@
     <row r="11" ht="42" customHeight="1" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1440,10 +1419,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
@@ -1598,20 +1577,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="44.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:4">
@@ -1636,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1648,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -1662,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1674,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1686,7 +1665,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1700,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1712,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1724,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1747,10 +1726,10 @@
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1762,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1780,20 +1759,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1819,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1831,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -1842,10 +1821,10 @@
         <v>43662</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1857,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:4">
@@ -1869,10 +1848,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:4">
@@ -1880,10 +1859,10 @@
         <v>43663</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1895,10 +1874,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:4">
@@ -1907,29 +1886,49 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
@@ -2070,10 +2069,11 @@
       <c r="D35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
